--- a/biology/Botanique/Cistus_populifolius/Cistus_populifolius.xlsx
+++ b/biology/Botanique/Cistus_populifolius/Cistus_populifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Ciste à feuilles de peuplier (Cistus populifolius) ou Ciste de Narbonne[2] est une espèce de spermaphytes qui appartient à la famille des Cistacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ciste à feuilles de peuplier (Cistus populifolius) ou Ciste de Narbonne est une espèce de spermaphytes qui appartient à la famille des Cistacées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de la même taille que Cistus laurifolius. Elle pousse aux mêmes endroits que le Ciste porte-laudanum, mais occupe des lieux plus ombragés (étant une espèce moins héliophile) et plus frais. Ses feuilles sont simples, opposées, pétiolées, étroites à la pointe et cordées à la base, de sorte qu'elles peuvent ressembler à celles du peuplier (Pópulus spp.). Les fleurs naissent sur de longs pédoncules sous forme de corymbes, et ces fleurs étant blanches et très voyantes, l'espèce sert parfois de plante ornementale.
 </t>
@@ -542,18 +556,20 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La description de Cistus populifolius par Carl von Linné parut dans Species Plantarum, vol. 1, p. 523, en 1753[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La description de Cistus populifolius par Carl von Linné parut dans Species Plantarum, vol. 1, p. 523, en 1753.
 Étymologie
-Cistus : provenant du grec kisthós, latinisé en cisthos, nom donné à diverses espèces du genre Cistus L. Quelques auteurs font découler ce nom du mot grec kístē (caisse, corbeille, panier) en raison de la forme des fruits du genre[4].
-populifolius : építhète latin qui signifie « [avec des] feuilles comme celles du genre Populus (peuplier) »[5].
+Cistus : provenant du grec kisthós, latinisé en cisthos, nom donné à diverses espèces du genre Cistus L. Quelques auteurs font découler ce nom du mot grec kístē (caisse, corbeille, panier) en raison de la forme des fruits du genre.
+populifolius : építhète latin qui signifie « [avec des] feuilles comme celles du genre Populus (peuplier) ».
 Synonymes
 Cistus cordifolius Mill.
 Cistus latifolius Sweet
 Ledonia populifolia (L.) Spach
-Libanotis populifolius (L.) Raf.[6]
-Cistus narbonensis, Rouy et Fouc[7]</t>
+Libanotis populifolius (L.) Raf.
+Cistus narbonensis, Rouy et Fouc</t>
         </is>
       </c>
     </row>
@@ -581,9 +597,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms vernaculaires de l'espèce sont Ciste à feuilles de peuplier et Ciste de Narbonne[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms vernaculaires de l'espèce sont Ciste à feuilles de peuplier et Ciste de Narbonne.
 </t>
         </is>
       </c>
